--- a/src/demos/zdemo_excel15_08.w3mi.data.xlsx
+++ b/src/demos/zdemo_excel15_08.w3mi.data.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="A_range_with_sheet_visibility" localSheetId="0">Sheet1!$E$4:$E$5</definedName>
     <definedName name="range">Sheet1!$C$4:$C$8</definedName>
     <definedName name="A_range_with_a_name_that_is_longer_than_20_characters">Sheet1!$D$4:$D$5</definedName>
   </definedNames>
@@ -360,7 +359,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="C4:E8"/>
+  <dimension ref="C1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" zoomScaleSheetLayoutView="100" workbookViewId="0" showGridLines="1" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -368,10 +367,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="0.0000000000000000E+00">
       <c r=""/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="0.0000000000000000E+00">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -382,7 +381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="0.0000000000000000E+00">
       <c r="C5" t="s">
         <v>2</v>
       </c>
@@ -393,17 +392,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" ht="0.0000000000000000E+00">
       <c r="C6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="0.0000000000000000E+00">
       <c r="C7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="0.0000000000000000E+00">
       <c r="C8" t="s">
         <v>4</v>
       </c>

--- a/src/demos/zdemo_excel15_08.w3mi.data.xlsx
+++ b/src/demos/zdemo_excel15_08.w3mi.data.xlsx
@@ -210,7 +210,7 @@
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -348,9 +348,9 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst/>
+  <a:objectDefaults xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+  <a:extraClrSchemeLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+  <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
 </a:theme>
 </file>
 
